--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_极光组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作计划表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version3.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -130,35 +130,154 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东提现失败回滚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC端业主详情菜单错位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS补录租约合同关闭下载</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同预览，乙方联系地址为空时，默认为签约房间地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东审核签约单，不同意拒绝时，关闭账单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC登录在线验证功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>崔斌</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC端密码输入错误和密码被锁定都会提登录错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>极光组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>New Features</t>
+    <t>施超</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC&amp;App</t>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东提现失败回滚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC登录在线验证功能</t>
+    <t>Fix Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -166,63 +285,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>田东兴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙周麟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>房东PC&amp;App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC端业主详情菜单错位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东审核签约单，不同意拒绝时，关闭账单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS补录租约合同关闭下载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC端密码输入错误和密码被锁定都会提登录错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同预览，乙方联系地址为空时，默认为签约房间地址</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +1014,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1037,64 +1100,66 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="33">
         <v>42450</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
+      <c r="G2" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="H2" s="33">
         <v>42450</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14" t="s">
-        <v>33</v>
+      <c r="I2" s="32"/>
+      <c r="J2" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="M2" s="34"/>
       <c r="N2" s="33"/>
       <c r="O2" s="34"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F3" s="33">
         <v>42450</v>
@@ -1107,38 +1172,40 @@
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="32"/>
+        <v>48</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="M3" s="38"/>
       <c r="N3" s="37"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="36" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F4" s="33">
         <v>42450</v>
@@ -1149,17 +1216,25 @@
       <c r="H4" s="33">
         <v>42450</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14" t="s">
-        <v>33</v>
+      <c r="I4" s="32"/>
+      <c r="J4" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="36" t="s">
@@ -1169,20 +1244,20 @@
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F5" s="33">
         <v>42450</v>
@@ -1193,40 +1268,48 @@
       <c r="H5" s="33">
         <v>42450</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14" t="s">
-        <v>41</v>
+      <c r="I5" s="32"/>
+      <c r="J5" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="36" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F6" s="33">
         <v>42450</v>
@@ -1237,37 +1320,45 @@
       <c r="H6" s="33">
         <v>42450</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+      <c r="I6" s="32"/>
+      <c r="J6" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="36" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>15</v>
@@ -1281,40 +1372,48 @@
       <c r="H7" s="33">
         <v>42450</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14" t="s">
-        <v>43</v>
+      <c r="I7" s="32"/>
+      <c r="J7" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="36" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F8" s="33">
         <v>42450</v>
@@ -1325,17 +1424,25 @@
       <c r="H8" s="33">
         <v>42450</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="14" t="s">
-        <v>44</v>
+      <c r="I8" s="32"/>
+      <c r="J8" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="36" t="s">
@@ -1345,17 +1452,17 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>15</v>
@@ -1369,21 +1476,29 @@
       <c r="H9" s="33">
         <v>42450</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14" t="s">
-        <v>45</v>
+      <c r="I9" s="32"/>
+      <c r="J9" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="36" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_极光组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -286,6 +286,14 @@
   </si>
   <si>
     <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东发起签约蘑菇宝入住时间不能大于当前时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东提现超过5万提示</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1022,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,16 +1515,34 @@
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="33">
+        <v>42450</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="33">
+        <v>42450</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
@@ -1531,15 +1557,34 @@
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="33">
+        <v>42450</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="33">
+        <v>42450</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
@@ -1554,6 +1599,7 @@
       <c r="A12" s="21">
         <v>12</v>
       </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1601,7 +1647,7 @@
       <c r="A14" s="35">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_极光组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_极光组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.0.2 New Features|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.0.3 New Features|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -294,6 +294,10 @@
   </si>
   <si>
     <t>房东提现超过5万提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加业主 报错</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -386,12 +390,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -543,7 +541,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,13 +653,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1022,7 +1017,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1188,10 +1183,16 @@
       <c r="L3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="M3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="37"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="36" t="s">
         <v>50</v>
@@ -1543,13 +1544,23 @@
       <c r="K10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="L10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="31"/>
+      <c r="R10" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
@@ -1585,13 +1596,23 @@
       <c r="K11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="L11" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="31"/>
+      <c r="R11" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
@@ -1599,23 +1620,51 @@
       <c r="A12" s="21">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="33">
+        <v>42450</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="33">
+        <v>42450</v>
+      </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="J12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="31"/>
+      <c r="R12" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
@@ -1647,7 +1696,7 @@
       <c r="A14" s="35">
         <v>14</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_极光组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -391,6 +391,7 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1017,7 +1018,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1137,9 +1138,15 @@
       <c r="L2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="M2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="33">
+        <v>42451</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30" t="s">
